--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1440333.572345029</v>
+        <v>1438081.492633821</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283209</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>120.6088074159611</v>
       </c>
       <c r="H2" t="n">
-        <v>92.01936427017841</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>67.34199542673561</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>229.796569204138</v>
+        <v>354.032769970061</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>45.98521326965229</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>146.578870821934</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>27.55805524026433</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.596724502524776</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1297,7 +1297,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>58.28185552386313</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>204.7158181704327</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634757</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881308</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>162.4016674345627</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>120.1447214650597</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>107.4021082756248</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>193.9962538432431</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701328</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>212.5602966632231</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>253.2918698186439</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>245.8796921214419</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634789</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>108.2950343703266</v>
+        <v>144.108843301494</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>99.97427419833411</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899574</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808249</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,10 +3427,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>23.10998325717214</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>103.1686991936193</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>44.75138076689361</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.91555826189063</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="42">
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>38.61213096654769</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1754.744438482648</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C2" t="n">
-        <v>1385.781921542236</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D2" t="n">
-        <v>1027.516222935486</v>
+        <v>985.1133520179758</v>
       </c>
       <c r="E2" t="n">
-        <v>1027.516222935486</v>
+        <v>599.3250994197315</v>
       </c>
       <c r="F2" t="n">
-        <v>616.5303181458783</v>
+        <v>188.3391946301239</v>
       </c>
       <c r="G2" t="n">
-        <v>201.4578679908747</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4364,16 +4364,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792696</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.483610522581</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X2" t="n">
-        <v>2531.483610522581</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y2" t="n">
-        <v>2141.34427854677</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686077</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080122</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.619250712236</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>359.619250712236</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>359.619250712236</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>359.619250712236</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143257</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
@@ -4495,43 +4495,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>763.0343309729496</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>541.2677155424757</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>541.2677155424757</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>541.2677155424757</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>541.2677155424757</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>541.2677155424757</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>541.2677155424757</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1822.632236038044</v>
+        <v>1990.120246683346</v>
       </c>
       <c r="C5" t="n">
-        <v>1453.669719097632</v>
+        <v>1621.157729742934</v>
       </c>
       <c r="D5" t="n">
-        <v>1095.404020490882</v>
+        <v>1262.892031136184</v>
       </c>
       <c r="E5" t="n">
-        <v>709.6157678926375</v>
+        <v>877.1037785379394</v>
       </c>
       <c r="F5" t="n">
-        <v>298.6298631030299</v>
+        <v>466.1178737483319</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4580,10 +4580,10 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052369</v>
@@ -4595,22 +4595,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="W5" t="n">
-        <v>2972.837166339057</v>
+        <v>2766.859418723279</v>
       </c>
       <c r="X5" t="n">
-        <v>2599.371408077977</v>
+        <v>2766.859418723279</v>
       </c>
       <c r="Y5" t="n">
-        <v>2209.232076102166</v>
+        <v>2376.720086747468</v>
       </c>
     </row>
     <row r="6">
@@ -4635,31 +4635,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>410.9915598002984</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269123</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218343</v>
@@ -4747,28 +4747,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U7" t="n">
-        <v>631.7841389438286</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V7" t="n">
-        <v>631.7841389438286</v>
+        <v>682.9970830990119</v>
       </c>
       <c r="W7" t="n">
-        <v>631.7841389438286</v>
+        <v>682.9970830990119</v>
       </c>
       <c r="X7" t="n">
-        <v>631.7841389438286</v>
+        <v>455.0075322009945</v>
       </c>
       <c r="Y7" t="n">
-        <v>410.9915598002984</v>
+        <v>234.2149530574645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1257.755181644084</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>888.7926647036722</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>530.5269660969217</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4799,13 +4799,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3297.76940217456</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3091.791654558782</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>3091.791654558782</v>
+        <v>3118.015220960539</v>
       </c>
       <c r="V8" t="n">
-        <v>2760.728767215212</v>
+        <v>2786.952333616968</v>
       </c>
       <c r="W8" t="n">
-        <v>2407.960111945097</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="X8" t="n">
-        <v>2034.494353684017</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="Y8" t="n">
-        <v>1644.355021708206</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.2385409879448</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C10" t="n">
-        <v>570.3023580600379</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D10" t="n">
-        <v>420.1857186477022</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>272.2726250653091</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>125.3826775673987</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>125.3826775673987</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>125.3826775673987</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181845</v>
+        <v>714.1033511005761</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,49 +5042,49 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466569</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612122998</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852884</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591804</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615992</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191923</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349509</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061502</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.043492616109</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.9745311434712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257311</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133953</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310022</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797183</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258106</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.822296052219</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.405126015258</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.415575117241</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.622995973711</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,52 +5264,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637304</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444888</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>1394.184733704551</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5504,49 +5504,49 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.388077746847</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.868625753638</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257311</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133953</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310022</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797183</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5741,43 +5741,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756265</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021781</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820188</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5975,19 +5975,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6215,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>701.3802915967227</v>
       </c>
       <c r="D28" t="n">
-        <v>235.5284942057738</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>235.5284942057738</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,25 +6473,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400671</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121602</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998245</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797186</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487563</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510504</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854702</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648815</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611854</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>916.294644713837</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703069</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,34 +6953,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F37" t="n">
-        <v>198.027470314254</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>198.027470314254</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,40 +7184,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797186</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2426.846358063199</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2243.991523718104</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>2024.390058741045</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.314832085242</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7418,10 +7418,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7454,7 +7454,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7491,19 +7491,19 @@
         <v>93.81666304797186</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797186</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,22 +7725,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2407.960931088798</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2188.359466111739</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>906.400451171542</v>
       </c>
     </row>
   </sheetData>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.888534022029489e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>4.845153664065151</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>166.0397529241844</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>73.62417772601977</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.58839950885167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>73.624177726021</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>32.89260457060021</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>6.257951202386067</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>40.32043864788571</v>
+        <v>4.506629716718351</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462248</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>46.45968844823506</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>180.5336875992868</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25123,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>191.8807364711616</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,10 +25315,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>37.12601365260461</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25445,7 +25445,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>101.6825818796756</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.45968844823106</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="42">
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26029,16 +26029,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.4141550350969</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>922678.5798115522</v>
+        <v>922678.5798115527</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>922678.5798115524</v>
+        <v>922678.5798115528</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>922678.5798115528</v>
+        <v>922678.5798115527</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>922678.5798115525</v>
+        <v>922678.5798115527</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>922678.5798115524</v>
+        <v>922678.5798115528</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>922678.5798115524</v>
+        <v>922678.5798115527</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>922678.5798115525</v>
+        <v>922678.5798115524</v>
       </c>
     </row>
     <row r="16">
@@ -26314,19 +26314,19 @@
         <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062535</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="H2" t="n">
         <v>504466.6248062538</v>
@@ -26335,25 +26335,25 @@
         <v>504466.6248062537</v>
       </c>
       <c r="J2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="K2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062539</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.461807355</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551204</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405254</v>
+      </c>
+      <c r="C4" t="n">
         <v>93596.74410405252</v>
       </c>
-      <c r="C4" t="n">
-        <v>93596.7441040525</v>
-      </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687956</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
         <v>15436.64000687967</v>
@@ -26433,28 +26433,28 @@
         <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687975</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687973</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687967</v>
@@ -26476,10 +26476,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-1017124.324227861</v>
       </c>
       <c r="C6" t="n">
-        <v>311620.4214997313</v>
+        <v>311620.4214997311</v>
       </c>
       <c r="D6" t="n">
-        <v>311620.4214997314</v>
+        <v>311620.4214997311</v>
       </c>
       <c r="E6" t="n">
-        <v>62494.99316811189</v>
+        <v>62460.25524267556</v>
       </c>
       <c r="F6" t="n">
-        <v>387907.4549754668</v>
+        <v>387872.7170500312</v>
       </c>
       <c r="G6" t="n">
-        <v>387907.4549754669</v>
+        <v>387872.7170500316</v>
       </c>
       <c r="H6" t="n">
-        <v>387907.4549754671</v>
+        <v>387872.7170500312</v>
       </c>
       <c r="I6" t="n">
-        <v>387907.4549754668</v>
+        <v>387872.7170500312</v>
       </c>
       <c r="J6" t="n">
-        <v>170376.2525781895</v>
+        <v>170341.5146527537</v>
       </c>
       <c r="K6" t="n">
-        <v>387907.4549754668</v>
+        <v>387872.7170500311</v>
       </c>
       <c r="L6" t="n">
-        <v>387907.4549754671</v>
+        <v>387872.7170500311</v>
       </c>
       <c r="M6" t="n">
-        <v>302852.4270399552</v>
+        <v>302817.6891145192</v>
       </c>
       <c r="N6" t="n">
-        <v>387907.4549754669</v>
+        <v>387872.7170500312</v>
       </c>
       <c r="O6" t="n">
-        <v>387907.4549754669</v>
+        <v>387872.7170500315</v>
       </c>
       <c r="P6" t="n">
-        <v>387907.454975467</v>
+        <v>387872.7170500311</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26814,13 +26814,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022926</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973565</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>290.3129182374923</v>
       </c>
       <c r="H2" t="n">
-        <v>202.588400117142</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>122.4270299047063</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>181.1251564493155</v>
+        <v>56.88895568339245</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>121.2616078289755</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,16 +27828,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>105.558772501894</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27859,13 +27859,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>81.62970654791152</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>249.3984474563772</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28017,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>38.07056488597499</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>13.86883518166212</v>
       </c>
     </row>
     <row r="11">
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-1.802308681963356e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.672078567559044e-12</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29712,7 +29712,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>-1.487508428269215e-12</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>416.4300581532615</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319862</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>446.0127311990634</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704916</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,22 +32312,22 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200311</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,10 +32339,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32549,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>537.6437863443705</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32731,7 +32731,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
@@ -32786,28 +32786,28 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>232.75998908852</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>466.5925882502527</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>537.6437863443698</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34211,7 +34211,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,10 +34445,10 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>274.2960242312432</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875417</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>303.878697277045</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561613</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366978</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>395.047541899926</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306624</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,19 +36914,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998946</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>101.892590396165</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>395.0475418999253</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
